--- a/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/4_fold/11.xlsx
+++ b/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/4_fold/11.xlsx
@@ -1,37 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>X_True</t>
+  </si>
+  <si>
+    <t>Y_True</t>
+  </si>
+  <si>
+    <t>Z_True</t>
+  </si>
+  <si>
+    <t>X_Pred</t>
+  </si>
+  <si>
+    <t>Y_Pred</t>
+  </si>
+  <si>
+    <t>Z_Pred</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +72,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,5809 +388,5185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>X_True</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Y_True</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Z_True</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>X_Pred</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Y_Pred</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Z_Pred</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>-14.93424231464168</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>6.015621822840902</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>-3.233083951738513</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>-12.22293759655689</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>-6.1163817478673</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>-11.17119331515744</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>-15.18782990749516</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>5.922847216950085</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>-3.416827322125343</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>-12.71518272119065</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>-6.086182785830841</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>-11.04938780842774</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>-15.56824153563109</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>5.783674245277977</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>-3.692464288041201</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>-13.31891887589327</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>-6.027964296394689</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>-11.02706237693728</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>-16.07807190873142</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>5.597153637533256</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>-4.061874912689381</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>-13.97298449071713</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>-5.939191475306277</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>-11.01627700167138</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>-16.68389091337985</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>5.375515746006363</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>-4.500836553146357</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>-14.62711350417709</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>-5.831140888019915</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>-11.02770877758449</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>-17.37123503394674</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>5.12405202422322</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>-4.998869299572981</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>-15.36088931848397</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>-5.764095315539532</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>-10.96302605698315</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>-18.1375116911074</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>4.843710963087437</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>-5.554094632370739</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>-15.95874751392462</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>-5.623892475880909</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>-10.9177222309119</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>-18.96758896398086</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>4.540028551092398</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>-6.155548331595714</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>-16.70681519219971</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>-5.52135798712979</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>-10.71819442910363</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>-19.83490676535895</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>4.222721752681977</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>-6.783985607364911</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>-17.28226649825041</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>-5.405615180141032</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>-10.64542677857982</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>-20.75639668075176</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>3.885596175003073</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>-7.451674672616557</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>-17.99086399707464</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>-5.292671426606333</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>-10.44611553739447</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>-21.7312364701552</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>3.528952633215731</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>-8.158019752344778</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>-18.64587153449209</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>-5.168917478465101</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>-10.12458207434136</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>-22.72860820889099</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>3.164065814634995</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>-8.880690931726088</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>-19.38381354488602</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>-5.061846021448848</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>-9.805817962284427</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>-23.76190072853141</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>2.786037437138786</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>-9.629389430804212</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-20.12286050293783</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>-4.921969558546929</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>-9.360461041242557</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>-24.83095382614776</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>2.394926110706422</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>-10.40399917045346</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>-20.83062476254464</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>-4.711121061675357</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>-8.968476470086612</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>-25.9092120946151</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>2.000447087580976</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>-11.18527875186474</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>-21.63326508108616</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>-4.487089925955633</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>-8.665216129898052</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>-26.97742042395268</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>1.609644818241072</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>-11.95927639307104</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>-22.41195882907511</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>-4.253922726150434</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>-8.292256081343769</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>-28.03733863092228</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>1.221875476604066</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>-12.72726721427613</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>-23.25136582808491</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>-4.009147613929805</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>-8.107762836720871</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>-29.06829134836956</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.8447031119115118</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>-13.47427034988568</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>-24.00081016245832</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>-3.735144386268799</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>-7.872151441423384</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>-30.02380337841069</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.4951305992601524</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>-14.16661100768105</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>-24.77344028375101</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>-3.439431305715223</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>-7.797224747113464</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>-30.91724353248017</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.1682669808625421</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>-14.81397590160357</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>-25.41220871337696</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>-3.18966610826013</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>-7.786468902841604</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>-31.73822102320798</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>-0.1320862907248155</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>-15.40883612114599</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>-25.97874345410656</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>-2.961734190440624</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>-7.895300459525266</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>-32.44789920217058</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>-0.3917208912259931</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>-15.9230515802908</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>-26.44799298772937</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>-2.768308745152134</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>-7.999538306025706</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>-33.05816987009867</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>-0.6149874164793299</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>-16.36523878713147</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>-26.8859598229072</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>-2.583344244515838</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>-8.222195438606505</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>-33.57764103661661</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>-0.8050350927203037</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>-16.7416348950039</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>-27.14609801227783</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>-2.443529909169129</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>-8.403253244256666</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>-33.99115887767104</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>-0.9563199182157391</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>-17.04125981346089</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>-27.29315114872891</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>-2.327304163984538</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>-8.509325293608834</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>-34.29315645829065</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>-1.066805238915767</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>-17.26007987751575</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>-27.33850381591573</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>-2.281187293935884</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>-8.717239897723049</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>-34.51155325906615</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>-1.146705351108833</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>-17.4183248602637</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>-27.39558523078241</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>-2.240355407917091</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>-8.809744095926915</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>-34.64855481438141</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>-1.196827145940277</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>-17.51759283800111</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>-27.30169637918138</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>-2.215185464383028</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>-8.921860155391581</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>-34.67655775267009</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>-1.207071975090964</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>-17.53788308250401</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>-27.1400026862635</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>-2.216458665081131</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>-8.949586477568889</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>-34.63660333852446</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>-1.19245471805465</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>-17.50893309077002</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>-26.88937882078299</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>-2.229032453888224</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>-8.914844903697489</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>-34.53679210371939</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>-1.155938941125977</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>-17.43661231009148</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>-26.61389363300038</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>-2.256751283920702</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>-8.782719955163328</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>-34.3546891259661</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>-1.089316864696684</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>-17.30466494423908</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>-26.31343843953946</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>-2.277291482040518</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>-8.704886098551739</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>-34.1144186656817</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>-1.001414309964952</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>-17.13057084255107</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>-26.06556788625562</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>-2.343662763455023</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>-8.619075592329141</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>-33.83613314411356</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>-0.8996040072679987</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>-16.9289319568019</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>-25.61805049939561</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>-2.363875756450734</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>-8.382345300479884</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>-33.51199366160095</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>-0.7810181079920182</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>-16.69406841193312</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>-25.29613033913834</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>-2.422580497552329</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>-8.263985076387593</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>-33.13660225582179</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>-0.6436817764543618</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>-16.42206897640881</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>-24.9581114537838</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>-2.44712833716689</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>-8.174345384605123</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>-32.74266191122439</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>-0.499559346002355</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>-16.13662943327824</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>-24.60921064538883</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>-2.496296084360054</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>-7.907122700803946</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>-32.33195033286356</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>-0.3493011871213831</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>-15.83903786416501</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>-24.17184156878001</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>-2.55058314210252</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>-7.76421565822545</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>-31.8747760590894</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>-0.1820447271520454</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>-15.50778056181759</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>-23.72588197697864</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>-2.603611909760133</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>-7.582859261413382</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>-31.41148345010576</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>-0.0125498842579746</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>-15.17209006335086</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>-23.38144624395524</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>-2.670402345080455</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>-7.438751291744129</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>-30.94943596984664</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.156489430329682</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>-14.83730175471855</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>-22.88541531505106</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>-2.769192613170921</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>-7.369999856409084</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>-30.46863481677273</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.3323897454293068</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>-14.48892499323117</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>-22.46828398878252</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>-2.794838039594191</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>-7.232250894122035</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>-29.98439196047258</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.5095492020224692</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>-14.13805445772454</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>-21.96253948313188</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>-2.873082310993021</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>-7.099233453323706</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>-29.51519345237502</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.6812047084433294</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>-13.79808468913995</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>-21.58578403111573</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>-2.938077674151475</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>-7.027263139638845</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>-29.05161295597201</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.8508048744786938</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>-13.46218559448706</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>-21.16939990305846</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>-3.022262996563184</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>-6.900296271396132</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>-28.57823551343245</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>1.023989237227017</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>-13.1191878721672</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>-20.64801404818533</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>-3.109498367751999</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>-6.899745026174146</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>-28.12441488404849</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>1.190018771883891</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>-12.79036053855919</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>-20.25895020381633</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>-3.19364310016097</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>-6.765090255817653</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>-27.68800526621807</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>1.349678516454174</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>-12.47414879828007</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>-19.78777606874026</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>-3.252648538629782</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>-6.701847991480916</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>-27.23663539690597</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>1.514811444549025</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>-12.14709722550699</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>-19.3558185185706</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>-3.30259246607937</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>-6.672211998356011</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>-26.79863916451846</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>1.675051649458788</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>-11.82973586310739</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>-18.95692335713095</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>-3.35806740267745</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>-6.645027077736011</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>-26.37695469973129</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>1.829324220883503</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>-11.52419360874114</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>-18.44727983535972</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>-3.446967792345893</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>-6.51273150568076</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>-25.95253210444013</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>1.9845985328726</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>-11.21666737195012</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>-18.05014172183504</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>-3.471374809501977</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>-6.55811408106944</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>-25.5292891268072</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>2.139441283671689</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>-10.90999585727641</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>-17.61702941079343</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>-3.520182216874924</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>-6.469439068425446</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>-25.12551970383608</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>2.287159666363038</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>-10.61743440424536</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>-17.26067926265585</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>-3.533701172888613</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>-6.556621125259893</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>-24.73648631187364</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>2.429486896222967</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>-10.335550319035</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>-16.77173086709966</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>-3.610360777445887</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>-6.620204636638812</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>-24.34321128356746</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>2.57336592179851</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>-10.05059284782423</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>-16.38955030322232</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>-3.598038812329244</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>-6.675001036681539</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>-23.97721985151146</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>2.707263288331069</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>-9.785404403460824</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>-15.97702896349359</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>-3.660693209207388</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>-6.776951871755045</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>-23.63961523547445</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>2.830775384673461</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>-9.540784352019132</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>-15.71015240479955</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>-3.709251277992092</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>-6.903190308811562</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>-23.30709211263304</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>2.952428425045277</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>-9.29984622632093</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>-15.45587858926886</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>-3.716211220910413</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>-7.046235162695555</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>-23.0004559235582</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>3.064610773058328</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>-9.07766513997835</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>-15.09050319243399</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>-3.737043832723418</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>-7.161514319743526</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>-22.72742922885889</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>3.164497142550532</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>-8.879836671617067</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>-14.86166128693037</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>-3.805832290219292</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>-7.306472125796675</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>-22.47488225695974</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>3.256891038968014</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>-8.696847309733931</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>-14.59672744358563</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>-3.818445012294317</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>-7.425363907781595</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>-22.23925484967696</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>3.343094940356699</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>-8.526117450743293</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>-14.38598584869067</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>-3.867849672564683</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>-7.502804017806049</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>-22.03891384065136</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>3.416389370683414</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>-8.380955253291734</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>-14.14206865321552</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>-3.905603345314673</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>-7.625429829925617</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>-21.87077466151969</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>3.477902814236463</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>-8.259125714550938</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>-14.14988479935276</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>-3.957044961028522</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>-7.756311195488748</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>-21.71085335509024</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>3.53640976250861</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>-8.143250645469815</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>-13.96990512839191</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>-4.029680356742997</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>-7.801332836505889</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>-21.58626080022148</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>3.581991744832006</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>-8.052973926096083</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>-13.87155572989333</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>-4.053867028169937</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>-7.862461994158344</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>-21.49835673771296</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>3.614151302260125</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>-7.989280791371852</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>-13.86196895041909</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>-4.106596755195139</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>-7.871511603219292</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>-21.42794223509317</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>3.639912332821754</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>-7.938260164179938</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>-13.88225198549944</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>-4.182247408255805</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>-7.916516838128636</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>-21.38626112161436</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>3.65516129998365</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>-7.908059048321334</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>-13.93456491723605</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>-4.247408444894819</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>-7.878238107416154</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>-21.38456276895112</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>3.655782639526419</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>-7.906828463500772</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>-13.99492041881028</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>-4.319150860549075</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>-7.792739317241703</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>-21.41446492877977</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>3.644842983283103</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>-7.92849483750171</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>-14.03082216074309</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>-4.421881672374659</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>-7.748642980704325</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>-21.46446707711539</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>3.626549779134858</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>-7.96472517179522</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>-14.22258039259789</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>-4.515695937476509</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>-7.637494881599695</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>-21.55741420332652</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>3.592545225103286</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>-8.032072387191807</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>-14.42716326284242</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>-4.583218649580905</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>-7.566846900203291</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>-21.69521246291292</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>3.54213195731792</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>-8.131917637367252</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>-14.67141103692013</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>-4.64727630083939</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>-7.384758790983466</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>-21.85304476018458</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>3.48438926962783</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>-8.246279061482143</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>-14.99960766215203</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>-4.781107338435679</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>-7.27157633451198</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>-22.05802066011701</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>3.40939917204709</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>-8.394799587576733</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>-15.43081801411041</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>-4.876462366906735</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>-7.063819229032619</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>-22.31887765618225</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>3.31396506688644</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>-8.583810189817459</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>-15.83556849244198</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>-4.943275168146933</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>-6.9543773651389</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>-22.62312559362515</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>3.202656456824953</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>-8.804260807412545</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>-16.41302591247808</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>-5.058826622265644</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>-6.768985065808714</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>-22.97812494541793</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>3.072780524869951</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>-9.061484659137953</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>-16.94266717546719</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>-5.156290674144228</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>-6.566116980452925</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>-23.40847689704245</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>2.915336967568713</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>-9.373307162574591</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>-17.65179903422433</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>-5.222529416774285</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>-6.461386950718569</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>-23.91886886131529</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>2.728610902612483</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>-9.743124702457283</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>-18.3495010245861</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>-5.326931874018718</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>-6.337278026454132</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>-24.49317794405522</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>2.518500864454978</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>-10.15925502381483</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>-19.14578789409485</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>-5.43773429781718</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>-6.198649696789152</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>-25.17203490492525</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>2.270142156159084</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>-10.65113818180866</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>-20.16282428605551</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>-5.519241508415637</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>-6.138754278443049</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>-25.96978231952986</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>1.978287569909179</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>-11.22916645609228</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>-21.14981878144929</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>-5.618295197340194</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>-6.083810223430147</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>-26.86287132120431</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>1.651552420040689</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>-11.87627691357389</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>-22.27576950176844</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>-5.670660442708164</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>-6.030802089137318</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>-27.87962589240949</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>1.279574423917863</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>-12.61299241951509</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>-23.59628157935313</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>-5.759788633412377</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>-6.026785873948557</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>-29.03916931373109</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>0.8553573606305515</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>-13.45316923552601</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>-25.04236371269651</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>-5.831849142149308</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>-6.144896725202329</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>-30.3276040700329</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>0.3839856133503183</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>-14.38673756188818</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>-26.55536763492525</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>-5.870147880650341</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>-6.249515193403664</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>-31.73189925192833</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>-0.1297734810466979</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>-15.40425552022357</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>-28.13625338252896</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>-5.933044160810102</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>-6.389305075500688</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>-33.27855163071812</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>-0.6956137229832434</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>-16.52492202325651</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>-29.87234351979756</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>-5.962231686247742</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>-6.596917807231433</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>-34.96383514930741</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>-1.312171940568246</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>-17.74603726110609</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>-31.75907787340532</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>-5.970963507040652</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>-6.83755275273643</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>-36.73111966340039</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>-1.958730088177053</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>-19.02656841563906</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>-33.63801419477188</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>-5.963332586526063</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>-7.14588586145589</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>-38.60964293448799</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>-2.645984753008304</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>-20.38770045406323</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>-35.77294515179204</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>-5.943191661494396</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>-7.485091983828166</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>-40.60238580924941</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>-3.375026472941923</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>-21.83159322501032</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>-37.85375631594653</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>-5.946031304951193</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>-7.860909976360727</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>-42.63695854920945</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>-4.119371580610718</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>-23.30579489367569</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>-40.08556038893877</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>-5.896758355097872</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>-8.313695583013182</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>-44.7425738143083</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>-4.889707479852076</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>-24.83147223929714</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>-42.36780034119144</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>-5.839771647989683</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>-8.753595832601697</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>-46.8691707177573</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>-5.667719477150815</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>-26.37235236713406</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>-44.64830588789918</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>-5.734008183102451</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>-9.143618233265093</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>-49.06172410168735</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>-6.469861544906552</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>-27.96102294830535</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>-46.95487280252105</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>-5.662650958290496</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>-9.679759992413681</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>-51.14303223061835</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>-7.231304718155555</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>-29.46908793729028</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>-49.28221862012713</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>-5.525152738202014</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>-10.09123173841117</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>-53.35286568799653</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>-8.039768672506272</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>-31.07027923724029</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>-51.64276947339444</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>-5.375324269322862</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>-10.53144698526939</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>-28.16890161037922</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>1.173743375851049</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>-12.82259453290215</v>
       </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>-27.71239529570133</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>1.340755464078019</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>-12.49182121738647</v>
       </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>-27.13223861619939</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>1.55300483594227</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>-12.07145387036995</v>
       </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>-26.46757232306182</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>1.796171911668951</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>-11.58985292329923</v>
       </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>-25.72416705711149</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>2.06814551175573</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>-11.05119964144108</v>
       </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>-24.92061366051727</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>2.362124207015992</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>-10.46896449454523</v>
       </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>-24.05596198702924</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>2.678455606900517</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>-9.842459029866989</v>
       </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>-23.14066573727325</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>3.013315242141108</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>-9.179257743320736</v>
       </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>-22.19128921431176</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>3.360643089567139</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>-8.491362723962004</v>
       </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>-21.20144762726363</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>3.722775014474804</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>-7.774147708405772</v>
       </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>-20.17119128022669</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>4.09969261319223</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>-7.027649145771547</v>
       </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>-19.11970187096752</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>4.484378292979226</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>-6.265765625330653</v>
       </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>-18.04430263617807</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>4.877811343311953</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>-5.486557629828267</v>
       </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>-16.94410447896103</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>5.280317038835436</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>-4.689380941388124</v>
       </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>-15.83429196268549</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>5.686340131888144</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>-3.885237923414114</v>
       </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>-14.73152568911293</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>6.089785368577989</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>-3.08620044064489</v>
       </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>-13.63844018763072</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>6.489688910639578</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>-2.294177408668832</v>
       </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>-12.57389285971789</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>6.879151808598868</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>-1.522832439595284</v>
       </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>-11.57889877966624</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>7.243168764640658</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>-0.8018840535704569</v>
       </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>-10.65969149155416</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>7.579459246864052</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>-0.135848924243591</v>
       </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>-9.837476379061604</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>7.880265300348875</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>0.4599080457737192</v>
       </c>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>-9.151618997326262</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>8.1311851011633</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>0.9568635375889486</v>
       </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>-8.61045085749724</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>8.329170579586583</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>1.348980741901903</v>
       </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>-8.218135685775838</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>8.472698443201233</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>1.633242724496731</v>
       </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>-7.986888681489752</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>8.55729978132139</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>1.800798650562618</v>
       </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>-7.91578162575913</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>8.583314181305369</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>1.852321084807965</v>
       </c>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>-7.977102140308718</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>8.560880171398397</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>1.807889739053181</v>
       </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>-8.15478037920543</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>8.495876878439418</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>1.679148430805729</v>
       </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>-8.44802331535835</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>8.388594430091985</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>1.466671768108746</v>
       </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>-8.81550243356147</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>8.254152796016857</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>1.200405382732248</v>
       </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>-9.238117253105774</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>8.099539855826617</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>0.8941890160531377</v>
       </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>-9.718436735893233</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>7.923815759013114</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>0.5461612610800392</v>
       </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>-10.23159354594241</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>7.736078179753826</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>0.1743403815393265</v>
       </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>-10.75905207330251</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>7.543108340618763</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>-0.207843172734237</v>
       </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>-11.30078852259237</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>7.344914947109176</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>-0.6003721601891939</v>
       </c>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>-11.85290499979585</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>7.142924037372612</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>-1.000422262112314</v>
       </c>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>-12.38897778889375</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>6.946802684676606</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>-1.388847499850302</v>
       </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>-12.90125728973607</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>6.759386067555073</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>-1.760032702587095</v>
       </c>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>-13.40058187085333</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>6.57670898661635</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>-2.121831087196903</v>
       </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>-13.85887221420142</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>6.409044214419656</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>-2.4538970662733</v>
       </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>-14.27440497771529</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>6.257022232839522</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>-2.754981948286078</v>
       </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>-14.66325276911341</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>6.114762904642345</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>-3.036731551864865</v>
       </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>-15.0195285019729</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>5.984420010762675</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>-3.294880238107835</v>
       </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>-15.33684934660178</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>5.868328698998871</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>-3.524803164659671</v>
       </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>-15.62432355232554</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>5.763156731239364</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>-3.733099946314444</v>
       </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>-15.89317543816348</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>5.664797708737697</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>-3.92790345023533</v>
       </c>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>-16.1265262954287</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>5.579426679447737</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>-4.096983776737508</v>
       </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>-16.32486684429316</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>5.506864114197548</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>-4.240696489661077</v>
       </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>-16.50561185271168</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>5.440738848627284</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>-4.371659904131452</v>
       </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>-16.65135478304753</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>5.387419036048382</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>-4.477261668510503</v>
       </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>-16.76071903816554</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>5.347408302270178</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>-4.556504334167412</v>
       </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>-16.84696313662878</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>5.315856039971766</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>-4.618994699525175</v>
       </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>-16.91166244003605</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>5.292185905690046</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>-4.665874233085797</v>
       </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>-16.94587585822888</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>5.279668982628864</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>-4.690664439501131</v>
       </c>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>-16.95373170080008</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>5.276794935478993</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>-4.696356590978329</v>
       </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>-16.94988800676434</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>5.278201144652392</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>-4.693571544245892</v>
       </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>-16.91725196754241</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>5.290140986198193</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>-4.669924268071072</v>
       </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>-16.85699105934572</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>5.312187340854829</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>-4.626260687175659</v>
       </c>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>-16.78648569952265</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>5.337981611375608</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>-4.57517422707541</v>
       </c>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>-16.69835848135349</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>5.370222809937015</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>-4.511319399214907</v>
       </c>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>-16.59140030166183</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>5.409353284957638</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>-4.433820116991186</v>
       </c>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>-16.4783555239578</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>5.450710531901366</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>-4.351910634645293</v>
       </c>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>-16.36870051176408</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>5.490827638679941</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>-4.272457293519396</v>
       </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>-16.2567171522783</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>5.531796567505358</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>-4.191316888866213</v>
       </c>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>-16.15024175934526</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>5.570750415780343</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>-4.114167422125213</v>
       </c>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>-16.07115417470888</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>5.599684479205661</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>-4.056862491732827</v>
       </c>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>-16.00821272910241</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>5.622711504087405</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>-4.011256658960737</v>
       </c>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>-15.9649844149192</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>5.638526512095267</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>-3.979934479295763</v>
       </c>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>-15.95732557737097</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>5.64132848527985</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>-3.974385072842076</v>
       </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>-15.9808881115155</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>5.63270817071931</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>-3.991457909055603</v>
       </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>-16.02943144939092</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>5.61494866999082</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>-4.026631224952848</v>
       </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>-16.10751323310454</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>5.586382577187265</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>-4.083207376585175</v>
       </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>-16.21881727286512</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>5.545662176371716</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>-4.163855562772644</v>
       </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>-16.34515122988639</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>5.499443104920344</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>-4.255394059574444</v>
       </c>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>-16.48049533158674</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>5.449927686781762</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>-4.353461086941865</v>
       </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>-16.63492029679792</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>5.393431565950457</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>-4.465353641543955</v>
       </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>-16.78526256169019</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>5.338429094350151</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>-4.574287971303759</v>
       </c>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>-16.92205602038766</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>5.288383431325807</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>-4.673405167319216</v>
       </c>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>-17.04874674002802</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>5.242033838854026</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>-4.765202165593116</v>
       </c>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>-17.15440520705961</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>5.20337886158332</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>-4.841759707797118</v>
       </c>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>-17.22296712335086</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>5.178295596698534</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>-4.8914379962251</v>
       </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>-17.25282231901044</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>5.167373122219622</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>-4.913070341137255</v>
       </c>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>-17.25255304961135</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>5.167471633988661</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>-4.912875235113445</v>
       </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>-17.20525066982423</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>5.18477713223117</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>-4.87860108710958</v>
       </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>-17.11285513927758</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>5.218579885891487</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>-4.811653544446751</v>
       </c>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>-16.99582797517461</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>5.261394082382743</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>-4.726858522272629</v>
       </c>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>-16.84774515725796</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>5.31556993900423</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>-4.619561332555208</v>
       </c>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>-16.67417669941165</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>5.379069675290905</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>-4.493797871186049</v>
       </c>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>-16.49608233159166</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>5.444225208335539</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>-4.364755046093793</v>
       </c>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>-16.32859598174424</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>5.505499815363194</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>-4.243398531492804</v>
       </c>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>-16.17878146082825</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>5.560309212693343</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>-4.134846592116585</v>
       </c>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>-16.06857492567202</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>5.600628093245276</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>-4.054993630935001</v>
       </c>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>-16.03097162181065</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>5.614385200431302</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>-4.02774719623596</v>
       </c>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>-16.06745257391455</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>5.601038703799203</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>-4.054180402289396</v>
       </c>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>-16.20502754832149</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>5.550707124531375</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>-4.153863865482401</v>
       </c>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>-16.46020888734409</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>5.457349449212486</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>-4.338762025381458</v>
       </c>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>-16.86386737767431</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>5.309671651046286</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>-4.631243099332855</v>
       </c>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>-17.38564612568877</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>5.118779749890793</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>-5.00931122434477</v>
       </c>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>-18.10013708955023</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>4.857384399909701</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>-5.527013909770303</v>
       </c>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>-18.91779724698618</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>4.558244769278898</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>-6.119470470707483</v>
       </c>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>-19.98656181405585</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>4.167239001274903</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>-6.893871148176241</v>
       </c>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>-34.97267648291849</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>-1.315406528002461</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>-17.75244347529873</v>
       </c>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>-34.6331104765812</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>-1.191176860228207</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>-17.50640224839509</v>
       </c>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>-34.26420377604798</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>-1.056212947493616</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>-17.23910147176196</v>
       </c>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>-33.90072384589982</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>-0.9232344098243784</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>-16.9757328002829</v>
       </c>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>-33.5338884207698</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>-0.7890282698067488</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>-16.70993281917096</v>
       </c>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>-33.18817876462166</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>-0.6625509578022721</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>-16.45944005380671</v>
       </c>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>-32.87627276809693</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>-0.5484406593568564</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>-16.23344059381565</v>
       </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>-32.58548701038682</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>-0.4420571657219555</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>-16.02274434254828</v>
       </c>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>-32.29310304957344</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>-0.3350889720969171</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>-15.81089007238316</v>
       </c>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>-32.00488067926447</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>-0.2296432895481583</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>-15.60205118896014</v>
       </c>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>-31.7041547963712</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>-0.1196232173803871</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>-15.3841525659889</v>
       </c>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>-31.35564333785622</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>0.007879129435306583</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>-15.13162968312462</v>
       </c>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>-30.9776850611757</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>0.1461545464919624</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>-14.85777035569686</v>
       </c>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>-30.57277532197791</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>0.2942901120088996</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>-14.56438265740499</v>
       </c>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>-30.13303865840727</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>0.4551670508190748</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>-14.245760221118</v>
       </c>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>-29.67466539774021</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>0.6228621581812338</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>-13.91363416217934</v>
       </c>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>-29.22131775135948</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>0.7887186527803344</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>-13.58514954049257</v>
       </c>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>-28.77845160105181</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>0.9507405091923613</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>-13.26425955462173</v>
       </c>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>-28.34092137934838</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>1.1108102248559</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>-12.94723585217136</v>
       </c>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>-27.93494393267364</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>1.259336409406152</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>-12.65307451914368</v>
       </c>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>-27.56290801558279</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>1.395445140897898</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>-12.3835063886921</v>
       </c>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>-27.20825183956775</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>1.525195522556166</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>-12.1265311937457</v>
       </c>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>-26.88924123108032</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>1.641905031662598</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>-11.89538390561121</v>
       </c>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>-26.6118844132847</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>1.743375569604049</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>-11.69441793591182</v>
       </c>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>-26.36712723196161</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>1.832919583885995</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>-11.51707286584497</v>
       </c>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>-26.15574310628809</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>1.910254120368098</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>-11.36390909603874</v>
       </c>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>-25.99062135060137</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>1.970663644491335</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>-11.24426590855992</v>
       </c>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>-25.86685265676688</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>2.015944218603455</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>-11.15458613875089</v>
       </c>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>-25.76408551384264</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>2.053541409680661</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>-11.08012357931158</v>
       </c>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>-25.69360598323976</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>2.079326230623499</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>-11.02905583443284</v>
       </c>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>-25.64479110616008</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>2.097185073525537</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>-10.99368576786645</v>
       </c>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>-25.59146938346788</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>2.116692738520198</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>-10.95505015114699</v>
       </c>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>-25.53094838553995</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>2.138834246579414</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>-10.91119811559067</v>
       </c>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>-25.45780000941957</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>2.165595460287702</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>-10.85819659049457</v>
       </c>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>-25.35631054656817</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>2.202725214200977</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>-10.7846598068009</v>
       </c>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>-25.21687217508979</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>2.253738514238246</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>-10.68362617164394</v>
       </c>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>-25.05180223357208</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>2.314129082232537</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>-10.5640205274453</v>
       </c>
-      <c r="E240" t="inlineStr"/>
-      <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>-24.86379017839702</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>2.382912984967348</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>-10.42779158855088</v>
       </c>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>-24.64484758196278</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>2.46301277560906</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>-10.26915113561154</v>
       </c>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>-24.41976924916324</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>2.545357315359885</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>-10.10606487810078</v>
       </c>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>-24.19979182616153</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>2.625835695607981</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>-9.946674615128813</v>
       </c>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>-23.98357716206455</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>2.70493747666792</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>-9.790010755271954</v>
       </c>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>-23.7850405335873</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>2.777571777323594</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>-9.646155967854472</v>
       </c>
-      <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>-23.61946684489251</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>2.838146640398318</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>-9.526185320766309</v>
       </c>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>-23.48799020515889</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>2.88624715390484</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>-9.430920561793073</v>
       </c>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>-23.38526155585938</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>2.923830262152431</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>-9.356485893893188</v>
       </c>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>-23.32720061752964</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>2.945071761433135</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>-9.314416357381234</v>
       </c>
-      <c r="E250" t="inlineStr"/>
-      <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>-23.31400754582742</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>2.949898425127091</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>-9.304856980153644</v>
       </c>
-      <c r="E251" t="inlineStr"/>
-      <c r="F251" t="inlineStr"/>
-      <c r="G251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>-23.32896338387863</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>2.944426856248838</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>-9.315693614783783</v>
       </c>
-      <c r="E252" t="inlineStr"/>
-      <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>-23.3836551002467</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>2.924417981309628</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>-9.355321895428874</v>
       </c>
-      <c r="E253" t="inlineStr"/>
-      <c r="F253" t="inlineStr"/>
-      <c r="G253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>-23.47655636075003</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>2.890430207172208</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>-9.422635877654846</v>
       </c>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr"/>
-      <c r="G254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>-23.59219619670015</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>2.848123562415538</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>-9.506425675765088</v>
       </c>
-      <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr"/>
-      <c r="G255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>-23.72362998354712</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>2.800038726567472</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>-9.601659384584281</v>
       </c>
-      <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>-23.8733153795983</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>2.74527656935782</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>-9.710117763240147</v>
       </c>
-      <c r="E257" t="inlineStr"/>
-      <c r="F257" t="inlineStr"/>
-      <c r="G257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>-24.03181190369939</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>2.68729087536908</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>-9.82496046987745</v>
       </c>
-      <c r="E258" t="inlineStr"/>
-      <c r="F258" t="inlineStr"/>
-      <c r="G258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>-24.17896158058289</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>2.633456406867637</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>-9.931581528414524</v>
       </c>
-      <c r="E259" t="inlineStr"/>
-      <c r="F259" t="inlineStr"/>
-      <c r="G259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>-24.3235096802026</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>2.580573721151092</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>-10.0363175476664</v>
       </c>
-      <c r="E260" t="inlineStr"/>
-      <c r="F260" t="inlineStr"/>
-      <c r="G260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>-24.45920398797564</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>2.53093018069387</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>-10.13463832579269</v>
       </c>
-      <c r="E261" t="inlineStr"/>
-      <c r="F261" t="inlineStr"/>
-      <c r="G261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>-24.56718358706635</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>2.491426021057492</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>-10.21287770354257</v>
       </c>
-      <c r="E262" t="inlineStr"/>
-      <c r="F262" t="inlineStr"/>
-      <c r="G262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>-24.65121167546611</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>2.460684482414663</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>-10.2737624021826</v>
       </c>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>-24.71178931798279</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>2.438522251025342</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>-10.31765548102315</v>
       </c>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr"/>
-      <c r="G264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>-24.73874769846687</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>2.428659571638222</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>-10.33718886447688</v>
       </c>
-      <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr"/>
-      <c r="G265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>-24.72727296795414</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>2.432857583019784</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>-10.32887455526733</v>
       </c>
-      <c r="E266" t="inlineStr"/>
-      <c r="F266" t="inlineStr"/>
-      <c r="G266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>-24.68749844529282</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>2.447409027050926</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>-10.30005490850511</v>
       </c>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>-24.61887213319272</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>2.472515851037011</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>-10.2503299604483</v>
       </c>
-      <c r="E268" t="inlineStr"/>
-      <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>-24.50993279494902</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>2.512371129672058</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>-10.17139517917067</v>
       </c>
-      <c r="E269" t="inlineStr"/>
-      <c r="F269" t="inlineStr"/>
-      <c r="G269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>-24.37831834775037</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>2.560522059814163</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>-10.07603056827722</v>
       </c>
-      <c r="E270" t="inlineStr"/>
-      <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>-24.22807799249721</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>2.615487247939756</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>-9.967170079750556</v>
       </c>
-      <c r="E271" t="inlineStr"/>
-      <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>-24.05142415970551</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>2.68011576360149</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>-9.839171031123387</v>
       </c>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>-23.85915328094415</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>2.750457749976484</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>-9.69985625277276</v>
       </c>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>-23.66136643039515</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>2.822817745603997</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>-9.556544736112448</v>
       </c>
-      <c r="E274" t="inlineStr"/>
-      <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>-23.45721616115349</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>2.897505787547527</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>-9.408622441832398</v>
       </c>
-      <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr"/>
-      <c r="G275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>-23.24597687875738</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>2.974787333353601</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>-9.255563621924027</v>
       </c>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr"/>
-      <c r="G276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>-23.04377279798779</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>3.048763365429242</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>-9.10905148823284</v>
       </c>
-      <c r="E277" t="inlineStr"/>
-      <c r="F277" t="inlineStr"/>
-      <c r="G277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>-22.85372452435093</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>3.118292215356366</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>-8.971347155219936</v>
       </c>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr"/>
-      <c r="G278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>-22.66479609370781</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>3.187411372556669</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>-8.834454233063767</v>
       </c>
-      <c r="E279" t="inlineStr"/>
-      <c r="F279" t="inlineStr"/>
-      <c r="G279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>-22.49449108924712</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>3.249717179762323</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>-8.711055390236968</v>
       </c>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr"/>
-      <c r="G280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>-22.34659318160993</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>3.303825387260648</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>-8.603892181987582</v>
       </c>
-      <c r="E281" t="inlineStr"/>
-      <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>-22.2135035930819</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>3.352515995444278</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>-8.507458719749286</v>
       </c>
-      <c r="E282" t="inlineStr"/>
-      <c r="F282" t="inlineStr"/>
-      <c r="G282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>-22.0997177213072</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>3.394144370441081</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>-8.425012258757135</v>
       </c>
-      <c r="E283" t="inlineStr"/>
-      <c r="F283" t="inlineStr"/>
-      <c r="G283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>-22.01257729634532</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>3.426024552322331</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>-8.361872437130732</v>
       </c>
-      <c r="E284" t="inlineStr"/>
-      <c r="F284" t="inlineStr"/>
-      <c r="G284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>-21.94747672999046</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>3.449841487996824</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>-8.314702158247865</v>
       </c>
-      <c r="E285" t="inlineStr"/>
-      <c r="F285" t="inlineStr"/>
-      <c r="G285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>-21.89405367093552</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>3.469386226733975</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>-8.275993115677311</v>
       </c>
-      <c r="E286" t="inlineStr"/>
-      <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>-21.86185437258953</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>3.481166287344968</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>-8.252662291264297</v>
       </c>
-      <c r="E287" t="inlineStr"/>
-      <c r="F287" t="inlineStr"/>
-      <c r="G287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>-21.84611961424598</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>3.486922822937597</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>-8.241261270032409</v>
       </c>
-      <c r="E288" t="inlineStr"/>
-      <c r="F288" t="inlineStr"/>
-      <c r="G288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>-21.82909864056961</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>3.493149918305056</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>-8.228928288614155</v>
       </c>
-      <c r="E289" t="inlineStr"/>
-      <c r="F289" t="inlineStr"/>
-      <c r="G289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>-21.81518848071942</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>3.498238927524546</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>-8.218849326845035</v>
       </c>
-      <c r="E290" t="inlineStr"/>
-      <c r="F290" t="inlineStr"/>
-      <c r="G290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>-21.80037903910963</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>3.503656937504259</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>-8.208118767497432</v>
       </c>
-      <c r="E291" t="inlineStr"/>
-      <c r="F291" t="inlineStr"/>
-      <c r="G291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>-21.77167290069691</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>3.514159031269651</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>-8.187319001375627</v>
       </c>
-      <c r="E292" t="inlineStr"/>
-      <c r="F292" t="inlineStr"/>
-      <c r="G292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>-21.72441454797064</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>3.531448422283991</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>-8.153076754303736</v>
       </c>
-      <c r="E293" t="inlineStr"/>
-      <c r="F293" t="inlineStr"/>
-      <c r="G293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>-21.66269707427125</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>3.554027659046358</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>-8.108357781653373</v>
       </c>
-      <c r="E294" t="inlineStr"/>
-      <c r="F294" t="inlineStr"/>
-      <c r="G294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>-21.58219934925577</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>3.58347762002191</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>-8.050031098015644</v>
       </c>
-      <c r="E295" t="inlineStr"/>
-      <c r="F295" t="inlineStr"/>
-      <c r="G295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>-21.47158078289947</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>3.623947241514167</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>-7.969879589099317</v>
       </c>
-      <c r="E296" t="inlineStr"/>
-      <c r="F296" t="inlineStr"/>
-      <c r="G296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>-21.34295142142379</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>3.67100608292913</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>-7.876677898345051</v>
       </c>
-      <c r="E297" t="inlineStr"/>
-      <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>-21.19681199949572</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>3.724470951308248</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>-7.770788845851218</v>
       </c>
-      <c r="E298" t="inlineStr"/>
-      <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>-21.02578435678109</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>3.787041134536626</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>-7.64686639701178</v>
       </c>
-      <c r="E299" t="inlineStr"/>
-      <c r="F299" t="inlineStr"/>
-      <c r="G299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>-20.84059472723468</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>3.854792457473632</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>-7.51268251872872</v>
       </c>
-      <c r="E300" t="inlineStr"/>
-      <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>-20.6505079129999</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>3.92433540741544</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>-7.374950260140754</v>
       </c>
-      <c r="E301" t="inlineStr"/>
-      <c r="F301" t="inlineStr"/>
-      <c r="G301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>-20.4552837961867</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>3.995757831099205</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>-7.23349563769487</v>
       </c>
-      <c r="E302" t="inlineStr"/>
-      <c r="F302" t="inlineStr"/>
-      <c r="G302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>-20.26074063033738</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>4.066931129987102</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>-7.092534415670364</v>
       </c>
-      <c r="E303" t="inlineStr"/>
-      <c r="F303" t="inlineStr"/>
-      <c r="G303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>-20.07774964504859</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>4.133878082520184</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>-6.959943621266642</v>
       </c>
-      <c r="E304" t="inlineStr"/>
-      <c r="F304" t="inlineStr"/>
-      <c r="G304" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>